--- a/public/upload/vitri_phong/nhanvien.xlsx
+++ b/public/upload/vitri_phong/nhanvien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="29">
   <si>
     <t>Lưu Tấn Cường</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nhân viên phải được lấy mẫu sau khi hoàn tất hoạt động trong ngày và trước khi nhân viên ra khỏi khu vực vô trùng. </t>
+  </si>
+  <si>
+    <t>019</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -231,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,8 +1017,8 @@
       <c r="A34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="4">
-        <v>9</v>
+      <c r="B34" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -1039,8 +1045,8 @@
       <c r="A36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4">
-        <v>19</v>
+      <c r="B36" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
